--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.033285</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N2">
-        <v>0.099855</v>
+        <v>2.143422</v>
       </c>
       <c r="O2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q2">
-        <v>0.03345952435</v>
+        <v>0.52310094831</v>
       </c>
       <c r="R2">
-        <v>0.30113571915</v>
+        <v>4.70790853479</v>
       </c>
       <c r="S2">
-        <v>0.0005551954313044366</v>
+        <v>0.007097382806405967</v>
       </c>
       <c r="T2">
-        <v>0.0005551954313044365</v>
+        <v>0.007097382806405967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.9560023056192156</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P3">
-        <v>0.9560023056192157</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q3">
-        <v>4.16258497743</v>
+        <v>3.031733265495</v>
       </c>
       <c r="R3">
-        <v>37.46326479687</v>
+        <v>27.285599389455</v>
       </c>
       <c r="S3">
-        <v>0.06906996458500514</v>
+        <v>0.04113426217568546</v>
       </c>
       <c r="T3">
-        <v>0.06906996458500514</v>
+        <v>0.04113426217568546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1572886666666667</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N4">
-        <v>0.471866</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q4">
-        <v>0.1581133835755555</v>
+        <v>0.2084899760922223</v>
       </c>
       <c r="R4">
-        <v>1.42302045218</v>
+        <v>1.87640978483</v>
       </c>
       <c r="S4">
-        <v>0.002623582668748678</v>
+        <v>0.002828771724474126</v>
       </c>
       <c r="T4">
-        <v>0.002623582668748678</v>
+        <v>0.002828771724474126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.25983933333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>30.779518</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.7373940889775011</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.737394088977501</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.033285</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N5">
-        <v>0.099855</v>
+        <v>0.022586</v>
       </c>
       <c r="O5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q5">
-        <v>0.34149875221</v>
+        <v>0.005512100752222222</v>
       </c>
       <c r="R5">
-        <v>3.07348876989</v>
+        <v>0.04960890677</v>
       </c>
       <c r="S5">
-        <v>0.005666504551585411</v>
+        <v>7.478764707345786E-05</v>
       </c>
       <c r="T5">
-        <v>0.00566650455158541</v>
+        <v>7.478764707345785E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.140873</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N6">
-        <v>12.422619</v>
+        <v>2.143422</v>
       </c>
       <c r="O6">
-        <v>0.9560023056192156</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P6">
-        <v>0.9560023056192157</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q6">
-        <v>42.484691679738</v>
+        <v>7.330388447844001</v>
       </c>
       <c r="R6">
-        <v>382.362225117642</v>
+        <v>65.97349603059601</v>
       </c>
       <c r="S6">
-        <v>0.7049504492124721</v>
+        <v>0.09945799773846511</v>
       </c>
       <c r="T6">
-        <v>0.7049504492124721</v>
+        <v>0.09945799773846511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1572886666666667</v>
+        <v>4.140873</v>
       </c>
       <c r="N7">
-        <v>0.471866</v>
+        <v>12.422619</v>
       </c>
       <c r="O7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q7">
-        <v>1.613756448954222</v>
+        <v>42.484691679738</v>
       </c>
       <c r="R7">
-        <v>14.523808040588</v>
+        <v>382.362225117642</v>
       </c>
       <c r="S7">
-        <v>0.02677713521344351</v>
+        <v>0.5764281659924241</v>
       </c>
       <c r="T7">
-        <v>0.0267771352134435</v>
+        <v>0.5764281659924241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.264687</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>6.794061</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.162767344880208</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.162767344880208</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.033285</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N8">
-        <v>0.099855</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q8">
-        <v>0.075380106795</v>
+        <v>2.921639727810223</v>
       </c>
       <c r="R8">
-        <v>0.6784209611550001</v>
+        <v>26.294757550292</v>
       </c>
       <c r="S8">
-        <v>0.001250785589957872</v>
+        <v>0.03964052376059606</v>
       </c>
       <c r="T8">
-        <v>0.001250785589957872</v>
+        <v>0.03964052376059606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.264687</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>6.794061</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.162767344880208</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.162767344880208</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.140873</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N9">
-        <v>12.422619</v>
+        <v>0.022586</v>
       </c>
       <c r="O9">
-        <v>0.9560023056192156</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P9">
-        <v>0.9560023056192157</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q9">
-        <v>9.377781251750999</v>
+        <v>0.07724291039422222</v>
       </c>
       <c r="R9">
-        <v>84.40003126575901</v>
+        <v>0.695186193548</v>
       </c>
       <c r="S9">
-        <v>0.1556059569849969</v>
+        <v>0.001048024298024828</v>
       </c>
       <c r="T9">
-        <v>0.1556059569849969</v>
+        <v>0.001048024298024828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1572886666666667</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N10">
-        <v>0.471866</v>
+        <v>2.143422</v>
       </c>
       <c r="O10">
-        <v>0.03631319482174546</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P10">
-        <v>0.03631319482174546</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q10">
-        <v>0.3562095986473333</v>
+        <v>1.834769470158</v>
       </c>
       <c r="R10">
-        <v>3.205886387826</v>
+        <v>16.512925231422</v>
       </c>
       <c r="S10">
-        <v>0.005910602305253227</v>
+        <v>0.02489397377941828</v>
       </c>
       <c r="T10">
-        <v>0.005910602305253227</v>
+        <v>0.02489397377941828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.383875</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>1.151625</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.02758982345723265</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.02758982345723265</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.033285</v>
+        <v>4.140873</v>
       </c>
       <c r="N11">
-        <v>0.099855</v>
+        <v>12.422619</v>
       </c>
       <c r="O11">
-        <v>0.007684499559038781</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P11">
-        <v>0.007684499559038781</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q11">
-        <v>0.012777279375</v>
+        <v>10.633763244291</v>
       </c>
       <c r="R11">
-        <v>0.114995514375</v>
+        <v>95.703869198619</v>
       </c>
       <c r="S11">
-        <v>0.0002120139861910621</v>
+        <v>0.144277865794838</v>
       </c>
       <c r="T11">
-        <v>0.0002120139861910621</v>
+        <v>0.144277865794838</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.383875</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>1.151625</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.02758982345723265</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.02758982345723265</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.140873</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N12">
-        <v>12.422619</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O12">
-        <v>0.9560023056192156</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P12">
-        <v>0.9560023056192157</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q12">
-        <v>1.589577622875</v>
+        <v>0.7312757589215557</v>
       </c>
       <c r="R12">
-        <v>14.306198605875</v>
+        <v>6.581481830294001</v>
       </c>
       <c r="S12">
-        <v>0.02637593483674154</v>
+        <v>0.009921878396281444</v>
       </c>
       <c r="T12">
-        <v>0.02637593483674154</v>
+        <v>0.009921878396281442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.568000333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.704001</v>
+      </c>
+      <c r="I13">
+        <v>0.1793560346266988</v>
+      </c>
+      <c r="J13">
+        <v>0.1793560346266988</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.022586</v>
+      </c>
+      <c r="O13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q13">
+        <v>0.01933361850955556</v>
+      </c>
+      <c r="R13">
+        <v>0.174002566586</v>
+      </c>
+      <c r="S13">
+        <v>0.0002623166561610086</v>
+      </c>
+      <c r="T13">
+        <v>0.0002623166561610085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7579039999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.273712</v>
+      </c>
+      <c r="I14">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="J14">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7144740000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.143422</v>
+      </c>
+      <c r="O14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="P14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="Q14">
+        <v>0.541502702496</v>
+      </c>
+      <c r="R14">
+        <v>4.873524322464</v>
+      </c>
+      <c r="S14">
+        <v>0.007347056018028644</v>
+      </c>
+      <c r="T14">
+        <v>0.007347056018028644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7579039999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.273712</v>
+      </c>
+      <c r="I15">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="J15">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.140873</v>
+      </c>
+      <c r="N15">
+        <v>12.422619</v>
+      </c>
+      <c r="O15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="P15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="Q15">
+        <v>3.138384210192</v>
+      </c>
+      <c r="R15">
+        <v>28.245457891728</v>
+      </c>
+      <c r="S15">
+        <v>0.04258129182383449</v>
+      </c>
+      <c r="T15">
+        <v>0.04258129182383449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.383875</v>
-      </c>
-      <c r="H13">
-        <v>1.151625</v>
-      </c>
-      <c r="I13">
-        <v>0.02758982345723265</v>
-      </c>
-      <c r="J13">
-        <v>0.02758982345723265</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1572886666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.471866</v>
-      </c>
-      <c r="O13">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="P13">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="Q13">
-        <v>0.06037918691666667</v>
-      </c>
-      <c r="R13">
-        <v>0.5434126822500001</v>
-      </c>
-      <c r="S13">
-        <v>0.001001874634300052</v>
-      </c>
-      <c r="T13">
-        <v>0.001001874634300052</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7579039999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.273712</v>
+      </c>
+      <c r="I16">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="J16">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P16">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q16">
+        <v>0.2158242799253333</v>
+      </c>
+      <c r="R16">
+        <v>1.942418519328</v>
+      </c>
+      <c r="S16">
+        <v>0.002928282845779209</v>
+      </c>
+      <c r="T16">
+        <v>0.002928282845779208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7579039999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.273712</v>
+      </c>
+      <c r="I17">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="J17">
+        <v>0.05293404923015203</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.022586</v>
+      </c>
+      <c r="O17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q17">
+        <v>0.005706006581333333</v>
+      </c>
+      <c r="R17">
+        <v>0.051354059232</v>
+      </c>
+      <c r="S17">
+        <v>7.741854250968542E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.741854250968541E-05</v>
       </c>
     </row>
   </sheetData>
